--- a/biology/Médecine/Classe_ATC_L03/Classe_ATC_L03.xlsx
+++ b/biology/Médecine/Classe_ATC_L03/Classe_ATC_L03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC L03, dénommée « Immunostimulants », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QL03[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique L de la classification, intitulé « Antinéoplasiques et agents immunomodulants ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC L03, dénommée « Immunostimulants », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QL03. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique L de la classification, intitulé « Antinéoplasiques et agents immunomodulants ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>L03AA Facteurs de croissance
-L03AA02 Filgrastim
+          <t>L03AA Facteurs de croissance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L03AA02 Filgrastim
 L03AA03 Molgramostim
 L03AA09 Sargramostim
 L03AA10 Lénograstim
@@ -524,9 +541,43 @@
 L03AA15 Balugrastim
 L03AA16 Empegfilgrastim
 L03AA17 Pegteograstim
-« QL03AA90 » Pegbovigrastim
-L03AB Interférons
-L03AB01 Interféron alfa naturel
+« QL03AA90 » Pegbovigrastim</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>L03A Immunostimulants</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L03AB Interférons</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L03AB01 Interféron alfa naturel
 L03AB02 Interféron bêta naturel
 L03AB03 Interféron gamma
 L03AB04 Interféron alfa-2a
@@ -543,12 +594,80 @@
 L03AB15 Ropeginterféron alfa-2b
 L03AB60 Peginterféron alfa-2b, associations
 L03AB61 Peginterféron alfa-2a, associations
-« QL03AB90 » Interféron oméga recombinant d'origine féline
-L03AC Interleukines
-L03AC01 Aldesleukine
-L03AC02 Oprelvekin
-L03AX Autres immunostimulants
-L03AX01 Lentinane
+« QL03AB90 » Interféron oméga recombinant d'origine féline</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>L03A Immunostimulants</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L03AC Interleukines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L03AC01 Aldesleukine
+L03AC02 Oprelvekin</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_L03</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_L03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>L03A Immunostimulants</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L03AX Autres immunostimulants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L03AX01 Lentinane
 L03AX02 Roquinimex (en)
 L03AX03 Vaccin BCG
 L03AX04 Pégadémase
